--- a/monitoring/tables/nouna-pilots_rectal_random.xlsx
+++ b/monitoring/tables/nouna-pilots_rectal_random.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamgodwin/Documents/sam/monitoring/tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1840F2A6-572A-D74A-BF4A-720AF392BEE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C136B514-3846-DD41-BEB0-20A1E842B243}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1429,9 +1429,10 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1808,8 +1809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D451"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A418" workbookViewId="0">
+      <selection activeCell="D433" sqref="D433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2454,7 +2455,7 @@
     </row>
     <row r="80" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D80" s="1">
         <v>1</v>
@@ -2462,7 +2463,7 @@
     </row>
     <row r="81" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D81" s="1">
         <v>1</v>
@@ -2470,7 +2471,7 @@
     </row>
     <row r="82" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D82" s="1">
         <v>1</v>
@@ -2478,7 +2479,7 @@
     </row>
     <row r="83" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D83" s="1">
         <v>1</v>
@@ -2486,7 +2487,7 @@
     </row>
     <row r="84" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="D84" s="1">
         <v>1</v>
@@ -2494,7 +2495,7 @@
     </row>
     <row r="85" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="D85" s="1">
         <v>1</v>
@@ -2502,7 +2503,7 @@
     </row>
     <row r="86" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="D86" s="1">
         <v>1</v>
@@ -2510,7 +2511,7 @@
     </row>
     <row r="87" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="D87" s="1">
         <v>1</v>
@@ -2518,7 +2519,7 @@
     </row>
     <row r="88" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="D88" s="1">
         <v>1</v>
@@ -2526,7 +2527,7 @@
     </row>
     <row r="89" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="D89" s="1">
         <v>1</v>
@@ -2534,7 +2535,7 @@
     </row>
     <row r="90" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
-        <v>24</v>
+        <v>84</v>
       </c>
       <c r="D90" s="1">
         <v>1</v>
@@ -2542,7 +2543,7 @@
     </row>
     <row r="91" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
-        <v>26</v>
+        <v>86</v>
       </c>
       <c r="D91" s="1">
         <v>1</v>
@@ -2550,7 +2551,7 @@
     </row>
     <row r="92" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="D92" s="1">
         <v>1</v>
@@ -2558,7 +2559,7 @@
     </row>
     <row r="93" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="D93" s="1">
         <v>1</v>
@@ -2566,7 +2567,7 @@
     </row>
     <row r="94" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="D94" s="1">
         <v>1</v>
@@ -2574,7 +2575,7 @@
     </row>
     <row r="95" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="D95" s="1">
         <v>1</v>
@@ -2582,7 +2583,7 @@
     </row>
     <row r="96" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="D96" s="1">
         <v>1</v>
@@ -2590,7 +2591,7 @@
     </row>
     <row r="97" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
-        <v>34</v>
+        <v>111</v>
       </c>
       <c r="D97" s="1">
         <v>1</v>
@@ -2598,495 +2599,495 @@
     </row>
     <row r="98" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
-        <v>35</v>
+        <v>219</v>
       </c>
       <c r="D98" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
-        <v>36</v>
+        <v>231</v>
       </c>
       <c r="D99" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
-        <v>37</v>
+        <v>232</v>
       </c>
       <c r="D100" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="D101" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="D102" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C103" s="1" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="D103" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C104" s="1" t="s">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="D104" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C105" s="1" t="s">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="D105" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C106" s="1" t="s">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="D106" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C107" s="1" t="s">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c r="D107" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C108" s="1" t="s">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="D108" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C109" s="1" t="s">
-        <v>46</v>
+        <v>246</v>
       </c>
       <c r="D109" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C110" s="1" t="s">
-        <v>48</v>
+        <v>247</v>
       </c>
       <c r="D110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C111" s="1" t="s">
-        <v>49</v>
+        <v>248</v>
       </c>
       <c r="D111" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C112" s="1" t="s">
-        <v>50</v>
+        <v>249</v>
       </c>
       <c r="D112" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C113" s="1" t="s">
-        <v>51</v>
+        <v>250</v>
       </c>
       <c r="D113" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C114" s="1" t="s">
-        <v>53</v>
+        <v>251</v>
       </c>
       <c r="D114" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C115" s="1" t="s">
-        <v>54</v>
+        <v>252</v>
       </c>
       <c r="D115" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C116" s="1" t="s">
-        <v>55</v>
+        <v>257</v>
       </c>
       <c r="D116" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C117" s="1" t="s">
-        <v>56</v>
+        <v>258</v>
       </c>
       <c r="D117" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C118" s="1" t="s">
-        <v>57</v>
+        <v>263</v>
       </c>
       <c r="D118" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C119" s="1" t="s">
-        <v>58</v>
+        <v>264</v>
       </c>
       <c r="D119" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C120" s="1" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="D120" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C121" s="1" t="s">
-        <v>60</v>
+        <v>278</v>
       </c>
       <c r="D121" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C122" s="1" t="s">
-        <v>61</v>
+        <v>284</v>
       </c>
       <c r="D122" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C123" s="1" t="s">
-        <v>62</v>
+        <v>291</v>
       </c>
       <c r="D123" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C124" s="1" t="s">
-        <v>63</v>
+        <v>294</v>
       </c>
       <c r="D124" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C125" s="1" t="s">
-        <v>67</v>
+        <v>298</v>
       </c>
       <c r="D125" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C126" s="1" t="s">
-        <v>69</v>
+        <v>299</v>
       </c>
       <c r="D126" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C127" s="1" t="s">
-        <v>70</v>
+        <v>307</v>
       </c>
       <c r="D127" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C128" s="1" t="s">
-        <v>71</v>
+        <v>308</v>
       </c>
       <c r="D128" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C129" s="1" t="s">
-        <v>72</v>
+        <v>309</v>
       </c>
       <c r="D129" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C130" s="1" t="s">
-        <v>74</v>
+        <v>310</v>
       </c>
       <c r="D130" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C131" s="1" t="s">
-        <v>75</v>
+        <v>315</v>
       </c>
       <c r="D131" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C132" s="1" t="s">
-        <v>76</v>
+        <v>342</v>
       </c>
       <c r="D132" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C133" s="1" t="s">
-        <v>77</v>
+        <v>343</v>
       </c>
       <c r="D133" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C134" s="1" t="s">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="D134" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C135" s="1" t="s">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="D135" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C136" s="1" t="s">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="D136" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C137" s="1" t="s">
-        <v>82</v>
+        <v>352</v>
       </c>
       <c r="D137" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C138" s="1" t="s">
-        <v>83</v>
+        <v>353</v>
       </c>
       <c r="D138" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C139" s="1" t="s">
-        <v>84</v>
+        <v>355</v>
       </c>
       <c r="D139" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C140" s="1" t="s">
-        <v>85</v>
+        <v>357</v>
       </c>
       <c r="D140" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C141" s="1" t="s">
-        <v>86</v>
+        <v>360</v>
       </c>
       <c r="D141" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C142" s="1" t="s">
-        <v>87</v>
+        <v>361</v>
       </c>
       <c r="D142" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C143" s="1" t="s">
-        <v>89</v>
+        <v>376</v>
       </c>
       <c r="D143" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C144" s="1" t="s">
-        <v>91</v>
+        <v>378</v>
       </c>
       <c r="D144" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C145" s="1" t="s">
-        <v>92</v>
+        <v>379</v>
       </c>
       <c r="D145" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C146" s="1" t="s">
-        <v>93</v>
+        <v>380</v>
       </c>
       <c r="D146" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C147" s="1" t="s">
-        <v>94</v>
+        <v>381</v>
       </c>
       <c r="D147" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C148" s="1" t="s">
-        <v>95</v>
+        <v>383</v>
       </c>
       <c r="D148" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C149" s="1" t="s">
-        <v>96</v>
+        <v>388</v>
       </c>
       <c r="D149" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C150" s="1" t="s">
-        <v>97</v>
+        <v>397</v>
       </c>
       <c r="D150" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C151" s="1" t="s">
-        <v>99</v>
+        <v>404</v>
       </c>
       <c r="D151" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C152" s="1" t="s">
-        <v>100</v>
+        <v>413</v>
       </c>
       <c r="D152" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C153" s="1" t="s">
-        <v>103</v>
+        <v>423</v>
       </c>
       <c r="D153" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C154" s="1" t="s">
-        <v>106</v>
+        <v>425</v>
       </c>
       <c r="D154" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C155" s="1" t="s">
-        <v>107</v>
+        <v>433</v>
       </c>
       <c r="D155" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C156" s="1" t="s">
-        <v>108</v>
+        <v>436</v>
       </c>
       <c r="D156" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C157" s="1" t="s">
-        <v>109</v>
+        <v>445</v>
       </c>
       <c r="D157" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C158" s="1" t="s">
-        <v>110</v>
+        <v>446</v>
       </c>
       <c r="D158" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C159" s="1" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="D159" s="1">
         <v>1</v>
@@ -3094,7 +3095,7 @@
     </row>
     <row r="160" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C160" s="1" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="D160" s="1">
         <v>1</v>
@@ -3102,7 +3103,7 @@
     </row>
     <row r="161" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C161" s="1" t="s">
-        <v>113</v>
+        <v>14</v>
       </c>
       <c r="D161" s="1">
         <v>1</v>
@@ -3110,7 +3111,7 @@
     </row>
     <row r="162" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C162" s="1" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="D162" s="1">
         <v>1</v>
@@ -3118,7 +3119,7 @@
     </row>
     <row r="163" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C163" s="1" t="s">
-        <v>115</v>
+        <v>17</v>
       </c>
       <c r="D163" s="1">
         <v>1</v>
@@ -3126,7 +3127,7 @@
     </row>
     <row r="164" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C164" s="1" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="D164" s="1">
         <v>1</v>
@@ -3134,7 +3135,7 @@
     </row>
     <row r="165" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C165" s="1" t="s">
-        <v>117</v>
+        <v>20</v>
       </c>
       <c r="D165" s="1">
         <v>1</v>
@@ -3142,7 +3143,7 @@
     </row>
     <row r="166" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C166" s="1" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
       <c r="D166" s="1">
         <v>1</v>
@@ -3150,7 +3151,7 @@
     </row>
     <row r="167" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C167" s="1" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="D167" s="1">
         <v>1</v>
@@ -3158,7 +3159,7 @@
     </row>
     <row r="168" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C168" s="1" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
       <c r="D168" s="1">
         <v>1</v>
@@ -3166,7 +3167,7 @@
     </row>
     <row r="169" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C169" s="1" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="D169" s="1">
         <v>1</v>
@@ -3174,7 +3175,7 @@
     </row>
     <row r="170" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C170" s="1" t="s">
-        <v>122</v>
+        <v>32</v>
       </c>
       <c r="D170" s="1">
         <v>1</v>
@@ -3182,7 +3183,7 @@
     </row>
     <row r="171" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C171" s="1" t="s">
-        <v>123</v>
+        <v>33</v>
       </c>
       <c r="D171" s="1">
         <v>1</v>
@@ -3190,7 +3191,7 @@
     </row>
     <row r="172" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C172" s="1" t="s">
-        <v>124</v>
+        <v>34</v>
       </c>
       <c r="D172" s="1">
         <v>1</v>
@@ -3198,7 +3199,7 @@
     </row>
     <row r="173" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C173" s="1" t="s">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="D173" s="1">
         <v>1</v>
@@ -3206,7 +3207,7 @@
     </row>
     <row r="174" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C174" s="1" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="D174" s="1">
         <v>1</v>
@@ -3214,7 +3215,7 @@
     </row>
     <row r="175" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C175" s="1" t="s">
-        <v>127</v>
+        <v>37</v>
       </c>
       <c r="D175" s="1">
         <v>1</v>
@@ -3222,7 +3223,7 @@
     </row>
     <row r="176" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C176" s="1" t="s">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="D176" s="1">
         <v>1</v>
@@ -3230,7 +3231,7 @@
     </row>
     <row r="177" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C177" s="1" t="s">
-        <v>129</v>
+        <v>39</v>
       </c>
       <c r="D177" s="1">
         <v>1</v>
@@ -3238,7 +3239,7 @@
     </row>
     <row r="178" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C178" s="1" t="s">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="D178" s="1">
         <v>1</v>
@@ -3246,7 +3247,7 @@
     </row>
     <row r="179" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C179" s="1" t="s">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="D179" s="1">
         <v>1</v>
@@ -3254,7 +3255,7 @@
     </row>
     <row r="180" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C180" s="1" t="s">
-        <v>132</v>
+        <v>42</v>
       </c>
       <c r="D180" s="1">
         <v>1</v>
@@ -3262,7 +3263,7 @@
     </row>
     <row r="181" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C181" s="1" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="D181" s="1">
         <v>1</v>
@@ -3270,7 +3271,7 @@
     </row>
     <row r="182" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C182" s="1" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="D182" s="1">
         <v>1</v>
@@ -3278,7 +3279,7 @@
     </row>
     <row r="183" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C183" s="1" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="D183" s="1">
         <v>1</v>
@@ -3286,7 +3287,7 @@
     </row>
     <row r="184" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C184" s="1" t="s">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="D184" s="1">
         <v>1</v>
@@ -3294,7 +3295,7 @@
     </row>
     <row r="185" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C185" s="1" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="D185" s="1">
         <v>1</v>
@@ -3302,7 +3303,7 @@
     </row>
     <row r="186" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C186" s="1" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="D186" s="1">
         <v>1</v>
@@ -3310,7 +3311,7 @@
     </row>
     <row r="187" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C187" s="1" t="s">
-        <v>139</v>
+        <v>50</v>
       </c>
       <c r="D187" s="1">
         <v>1</v>
@@ -3318,7 +3319,7 @@
     </row>
     <row r="188" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C188" s="1" t="s">
-        <v>140</v>
+        <v>51</v>
       </c>
       <c r="D188" s="1">
         <v>1</v>
@@ -3326,7 +3327,7 @@
     </row>
     <row r="189" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C189" s="1" t="s">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="D189" s="1">
         <v>1</v>
@@ -3334,7 +3335,7 @@
     </row>
     <row r="190" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C190" s="1" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="D190" s="1">
         <v>1</v>
@@ -3342,7 +3343,7 @@
     </row>
     <row r="191" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C191" s="1" t="s">
-        <v>143</v>
+        <v>56</v>
       </c>
       <c r="D191" s="1">
         <v>1</v>
@@ -3350,7 +3351,7 @@
     </row>
     <row r="192" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C192" s="1" t="s">
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="D192" s="1">
         <v>1</v>
@@ -3358,7 +3359,7 @@
     </row>
     <row r="193" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C193" s="1" t="s">
-        <v>145</v>
+        <v>59</v>
       </c>
       <c r="D193" s="1">
         <v>1</v>
@@ -3366,7 +3367,7 @@
     </row>
     <row r="194" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C194" s="1" t="s">
-        <v>146</v>
+        <v>60</v>
       </c>
       <c r="D194" s="1">
         <v>1</v>
@@ -3374,7 +3375,7 @@
     </row>
     <row r="195" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C195" s="1" t="s">
-        <v>147</v>
+        <v>61</v>
       </c>
       <c r="D195" s="1">
         <v>1</v>
@@ -3382,7 +3383,7 @@
     </row>
     <row r="196" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C196" s="1" t="s">
-        <v>148</v>
+        <v>62</v>
       </c>
       <c r="D196" s="1">
         <v>1</v>
@@ -3390,7 +3391,7 @@
     </row>
     <row r="197" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C197" s="1" t="s">
-        <v>149</v>
+        <v>63</v>
       </c>
       <c r="D197" s="1">
         <v>1</v>
@@ -3398,7 +3399,7 @@
     </row>
     <row r="198" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C198" s="1" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="D198" s="1">
         <v>1</v>
@@ -3406,7 +3407,7 @@
     </row>
     <row r="199" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C199" s="1" t="s">
-        <v>151</v>
+        <v>69</v>
       </c>
       <c r="D199" s="1">
         <v>1</v>
@@ -3414,7 +3415,7 @@
     </row>
     <row r="200" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C200" s="1" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="D200" s="1">
         <v>1</v>
@@ -3422,7 +3423,7 @@
     </row>
     <row r="201" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C201" s="1" t="s">
-        <v>153</v>
+        <v>75</v>
       </c>
       <c r="D201" s="1">
         <v>1</v>
@@ -3430,7 +3431,7 @@
     </row>
     <row r="202" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C202" s="1" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="D202" s="1">
         <v>1</v>
@@ -3438,7 +3439,7 @@
     </row>
     <row r="203" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C203" s="1" t="s">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="D203" s="1">
         <v>1</v>
@@ -3446,7 +3447,7 @@
     </row>
     <row r="204" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C204" s="1" t="s">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="D204" s="1">
         <v>1</v>
@@ -3454,7 +3455,7 @@
     </row>
     <row r="205" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C205" s="1" t="s">
-        <v>157</v>
+        <v>81</v>
       </c>
       <c r="D205" s="1">
         <v>1</v>
@@ -3462,7 +3463,7 @@
     </row>
     <row r="206" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C206" s="1" t="s">
-        <v>158</v>
+        <v>82</v>
       </c>
       <c r="D206" s="1">
         <v>1</v>
@@ -3470,7 +3471,7 @@
     </row>
     <row r="207" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C207" s="1" t="s">
-        <v>159</v>
+        <v>83</v>
       </c>
       <c r="D207" s="1">
         <v>1</v>
@@ -3478,7 +3479,7 @@
     </row>
     <row r="208" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C208" s="1" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="D208" s="1">
         <v>1</v>
@@ -3486,7 +3487,7 @@
     </row>
     <row r="209" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C209" s="1" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="D209" s="1">
         <v>1</v>
@@ -3494,919 +3495,919 @@
     </row>
     <row r="210" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C210" s="1" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="D210" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C211" s="1" t="s">
-        <v>163</v>
+        <v>91</v>
       </c>
       <c r="D211" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C212" s="1" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="D212" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C213" s="1" t="s">
-        <v>165</v>
+        <v>93</v>
       </c>
       <c r="D213" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C214" s="1" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="D214" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C215" s="1" t="s">
-        <v>167</v>
+        <v>95</v>
       </c>
       <c r="D215" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C216" s="1" t="s">
-        <v>168</v>
+        <v>99</v>
       </c>
       <c r="D216" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C217" s="1" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="D217" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C218" s="1" t="s">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="D218" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C219" s="1" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="D219" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C220" s="1" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="D220" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C221" s="1" t="s">
-        <v>173</v>
+        <v>112</v>
       </c>
       <c r="D221" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C222" s="1" t="s">
-        <v>174</v>
+        <v>113</v>
       </c>
       <c r="D222" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C223" s="1" t="s">
-        <v>175</v>
+        <v>114</v>
       </c>
       <c r="D223" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C224" s="1" t="s">
-        <v>176</v>
+        <v>115</v>
       </c>
       <c r="D224" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C225" s="1" t="s">
-        <v>177</v>
+        <v>116</v>
       </c>
       <c r="D225" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C226" s="1" t="s">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="D226" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C227" s="1" t="s">
-        <v>179</v>
+        <v>118</v>
       </c>
       <c r="D227" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C228" s="1" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="D228" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C229" s="1" t="s">
-        <v>181</v>
+        <v>120</v>
       </c>
       <c r="D229" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C230" s="1" t="s">
-        <v>182</v>
+        <v>121</v>
       </c>
       <c r="D230" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C231" s="1" t="s">
-        <v>183</v>
+        <v>122</v>
       </c>
       <c r="D231" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C232" s="1" t="s">
-        <v>184</v>
+        <v>123</v>
       </c>
       <c r="D232" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C233" s="1" t="s">
-        <v>185</v>
+        <v>124</v>
       </c>
       <c r="D233" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C234" s="1" t="s">
-        <v>186</v>
+        <v>125</v>
       </c>
       <c r="D234" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C235" s="1" t="s">
-        <v>187</v>
+        <v>126</v>
       </c>
       <c r="D235" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C236" s="1" t="s">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="D236" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C237" s="1" t="s">
-        <v>189</v>
+        <v>128</v>
       </c>
       <c r="D237" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C238" s="1" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="D238" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C239" s="1" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="D239" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C240" s="1" t="s">
-        <v>192</v>
+        <v>131</v>
       </c>
       <c r="D240" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C241" s="1" t="s">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="D241" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C242" s="1" t="s">
-        <v>194</v>
+        <v>133</v>
       </c>
       <c r="D242" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C243" s="1" t="s">
-        <v>195</v>
+        <v>134</v>
       </c>
       <c r="D243" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C244" s="1" t="s">
-        <v>196</v>
+        <v>135</v>
       </c>
       <c r="D244" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C245" s="1" t="s">
-        <v>197</v>
+        <v>136</v>
       </c>
       <c r="D245" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C246" s="1" t="s">
-        <v>198</v>
+        <v>137</v>
       </c>
       <c r="D246" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C247" s="1" t="s">
-        <v>199</v>
+        <v>138</v>
       </c>
       <c r="D247" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C248" s="1" t="s">
-        <v>200</v>
+        <v>139</v>
       </c>
       <c r="D248" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C249" s="1" t="s">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="D249" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C250" s="1" t="s">
-        <v>202</v>
+        <v>141</v>
       </c>
       <c r="D250" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C251" s="1" t="s">
-        <v>203</v>
+        <v>142</v>
       </c>
       <c r="D251" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C252" s="1" t="s">
-        <v>204</v>
+        <v>143</v>
       </c>
       <c r="D252" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C253" s="1" t="s">
-        <v>205</v>
+        <v>144</v>
       </c>
       <c r="D253" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C254" s="1" t="s">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="D254" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C255" s="1" t="s">
-        <v>207</v>
+        <v>146</v>
       </c>
       <c r="D255" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C256" s="1" t="s">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="D256" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C257" s="1" t="s">
-        <v>209</v>
+        <v>148</v>
       </c>
       <c r="D257" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C258" s="1" t="s">
-        <v>210</v>
+        <v>149</v>
       </c>
       <c r="D258" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C259" s="1" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="D259" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C260" s="1" t="s">
-        <v>212</v>
+        <v>151</v>
       </c>
       <c r="D260" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C261" s="1" t="s">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c r="D261" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C262" s="1" t="s">
-        <v>214</v>
+        <v>153</v>
       </c>
       <c r="D262" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C263" s="1" t="s">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c r="D263" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C264" s="1" t="s">
-        <v>219</v>
+        <v>155</v>
       </c>
       <c r="D264" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C265" s="1" t="s">
-        <v>231</v>
+        <v>156</v>
       </c>
       <c r="D265" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C266" s="1" t="s">
-        <v>232</v>
+        <v>157</v>
       </c>
       <c r="D266" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C267" s="1" t="s">
-        <v>233</v>
+        <v>158</v>
       </c>
       <c r="D267" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C268" s="1" t="s">
-        <v>234</v>
+        <v>159</v>
       </c>
       <c r="D268" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C269" s="1" t="s">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="D269" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C270" s="1" t="s">
-        <v>236</v>
+        <v>161</v>
       </c>
       <c r="D270" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C271" s="1" t="s">
-        <v>237</v>
+        <v>162</v>
       </c>
       <c r="D271" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C272" s="1" t="s">
-        <v>238</v>
+        <v>163</v>
       </c>
       <c r="D272" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C273" s="1" t="s">
-        <v>239</v>
+        <v>164</v>
       </c>
       <c r="D273" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C274" s="1" t="s">
-        <v>240</v>
+        <v>165</v>
       </c>
       <c r="D274" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C275" s="1" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="D275" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C276" s="1" t="s">
-        <v>242</v>
+        <v>167</v>
       </c>
       <c r="D276" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C277" s="1" t="s">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c r="D277" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C278" s="1" t="s">
-        <v>244</v>
+        <v>169</v>
       </c>
       <c r="D278" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C279" s="1" t="s">
-        <v>245</v>
+        <v>170</v>
       </c>
       <c r="D279" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C280" s="1" t="s">
-        <v>246</v>
+        <v>171</v>
       </c>
       <c r="D280" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C281" s="1" t="s">
-        <v>247</v>
+        <v>172</v>
       </c>
       <c r="D281" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C282" s="1" t="s">
-        <v>248</v>
+        <v>173</v>
       </c>
       <c r="D282" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C283" s="1" t="s">
-        <v>249</v>
+        <v>174</v>
       </c>
       <c r="D283" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C284" s="1" t="s">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="D284" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C285" s="1" t="s">
-        <v>251</v>
+        <v>176</v>
       </c>
       <c r="D285" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C286" s="1" t="s">
-        <v>252</v>
+        <v>177</v>
       </c>
       <c r="D286" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C287" s="1" t="s">
-        <v>254</v>
+        <v>178</v>
       </c>
       <c r="D287" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C288" s="1" t="s">
-        <v>256</v>
+        <v>179</v>
       </c>
       <c r="D288" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C289" s="1" t="s">
-        <v>257</v>
+        <v>180</v>
       </c>
       <c r="D289" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C290" s="1" t="s">
-        <v>258</v>
+        <v>181</v>
       </c>
       <c r="D290" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C291" s="1" t="s">
-        <v>259</v>
+        <v>182</v>
       </c>
       <c r="D291" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C292" s="1" t="s">
-        <v>260</v>
+        <v>183</v>
       </c>
       <c r="D292" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C293" s="1" t="s">
-        <v>261</v>
+        <v>184</v>
       </c>
       <c r="D293" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C294" s="1" t="s">
-        <v>262</v>
+        <v>185</v>
       </c>
       <c r="D294" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C295" s="1" t="s">
-        <v>263</v>
+        <v>186</v>
       </c>
       <c r="D295" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C296" s="1" t="s">
-        <v>264</v>
+        <v>187</v>
       </c>
       <c r="D296" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C297" s="1" t="s">
-        <v>266</v>
+        <v>188</v>
       </c>
       <c r="D297" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C298" s="1" t="s">
-        <v>267</v>
+        <v>189</v>
       </c>
       <c r="D298" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C299" s="1" t="s">
-        <v>268</v>
+        <v>190</v>
       </c>
       <c r="D299" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C300" s="1" t="s">
-        <v>269</v>
+        <v>191</v>
       </c>
       <c r="D300" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C301" s="1" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="D301" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C302" s="1" t="s">
-        <v>271</v>
+        <v>193</v>
       </c>
       <c r="D302" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C303" s="1" t="s">
-        <v>273</v>
+        <v>194</v>
       </c>
       <c r="D303" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C304" s="1" t="s">
-        <v>274</v>
+        <v>195</v>
       </c>
       <c r="D304" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C305" s="1" t="s">
-        <v>275</v>
+        <v>196</v>
       </c>
       <c r="D305" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C306" s="1" t="s">
-        <v>276</v>
+        <v>197</v>
       </c>
       <c r="D306" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C307" s="1" t="s">
-        <v>277</v>
+        <v>198</v>
       </c>
       <c r="D307" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C308" s="1" t="s">
-        <v>278</v>
+        <v>199</v>
       </c>
       <c r="D308" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C309" s="1" t="s">
-        <v>279</v>
+        <v>200</v>
       </c>
       <c r="D309" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C310" s="1" t="s">
-        <v>280</v>
+        <v>201</v>
       </c>
       <c r="D310" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C311" s="1" t="s">
-        <v>281</v>
+        <v>202</v>
       </c>
       <c r="D311" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C312" s="1" t="s">
-        <v>282</v>
+        <v>203</v>
       </c>
       <c r="D312" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C313" s="1" t="s">
-        <v>284</v>
+        <v>204</v>
       </c>
       <c r="D313" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C314" s="1" t="s">
-        <v>285</v>
+        <v>205</v>
       </c>
       <c r="D314" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C315" s="1" t="s">
-        <v>286</v>
+        <v>206</v>
       </c>
       <c r="D315" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C316" s="1" t="s">
-        <v>287</v>
+        <v>207</v>
       </c>
       <c r="D316" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C317" s="1" t="s">
-        <v>288</v>
+        <v>208</v>
       </c>
       <c r="D317" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C318" s="1" t="s">
-        <v>289</v>
+        <v>209</v>
       </c>
       <c r="D318" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C319" s="1" t="s">
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="D319" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C320" s="1" t="s">
-        <v>291</v>
+        <v>211</v>
       </c>
       <c r="D320" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C321" s="1" t="s">
-        <v>293</v>
+        <v>212</v>
       </c>
       <c r="D321" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C322" s="1" t="s">
-        <v>294</v>
+        <v>213</v>
       </c>
       <c r="D322" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C323" s="1" t="s">
-        <v>298</v>
+        <v>214</v>
       </c>
       <c r="D323" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C324" s="1" t="s">
-        <v>299</v>
+        <v>215</v>
       </c>
       <c r="D324" s="1">
         <v>0</v>
@@ -4414,7 +4415,7 @@
     </row>
     <row r="325" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C325" s="1" t="s">
-        <v>300</v>
+        <v>234</v>
       </c>
       <c r="D325" s="1">
         <v>0</v>
@@ -4422,7 +4423,7 @@
     </row>
     <row r="326" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C326" s="1" t="s">
-        <v>302</v>
+        <v>235</v>
       </c>
       <c r="D326" s="1">
         <v>0</v>
@@ -4430,7 +4431,7 @@
     </row>
     <row r="327" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C327" s="1" t="s">
-        <v>304</v>
+        <v>236</v>
       </c>
       <c r="D327" s="1">
         <v>0</v>
@@ -4438,7 +4439,7 @@
     </row>
     <row r="328" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C328" s="1" t="s">
-        <v>307</v>
+        <v>237</v>
       </c>
       <c r="D328" s="1">
         <v>0</v>
@@ -4446,7 +4447,7 @@
     </row>
     <row r="329" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C329" s="1" t="s">
-        <v>308</v>
+        <v>238</v>
       </c>
       <c r="D329" s="1">
         <v>0</v>
@@ -4454,7 +4455,7 @@
     </row>
     <row r="330" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C330" s="1" t="s">
-        <v>309</v>
+        <v>254</v>
       </c>
       <c r="D330" s="1">
         <v>0</v>
@@ -4462,7 +4463,7 @@
     </row>
     <row r="331" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C331" s="1" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
       <c r="D331" s="1">
         <v>0</v>
@@ -4470,7 +4471,7 @@
     </row>
     <row r="332" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C332" s="1" t="s">
-        <v>315</v>
+        <v>259</v>
       </c>
       <c r="D332" s="1">
         <v>0</v>
@@ -4478,7 +4479,7 @@
     </row>
     <row r="333" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C333" s="1" t="s">
-        <v>316</v>
+        <v>260</v>
       </c>
       <c r="D333" s="1">
         <v>0</v>
@@ -4486,7 +4487,7 @@
     </row>
     <row r="334" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C334" s="1" t="s">
-        <v>317</v>
+        <v>261</v>
       </c>
       <c r="D334" s="1">
         <v>0</v>
@@ -4494,7 +4495,7 @@
     </row>
     <row r="335" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C335" s="1" t="s">
-        <v>318</v>
+        <v>262</v>
       </c>
       <c r="D335" s="1">
         <v>0</v>
@@ -4502,7 +4503,7 @@
     </row>
     <row r="336" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C336" s="1" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="D336" s="1">
         <v>0</v>
@@ -4510,7 +4511,7 @@
     </row>
     <row r="337" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C337" s="1" t="s">
-        <v>320</v>
+        <v>267</v>
       </c>
       <c r="D337" s="1">
         <v>0</v>
@@ -4518,7 +4519,7 @@
     </row>
     <row r="338" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C338" s="1" t="s">
-        <v>321</v>
+        <v>268</v>
       </c>
       <c r="D338" s="1">
         <v>0</v>
@@ -4526,7 +4527,7 @@
     </row>
     <row r="339" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C339" s="1" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="D339" s="1">
         <v>0</v>
@@ -4534,7 +4535,7 @@
     </row>
     <row r="340" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C340" s="1" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="D340" s="1">
         <v>0</v>
@@ -4542,7 +4543,7 @@
     </row>
     <row r="341" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C341" s="1" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c r="D341" s="1">
         <v>0</v>
@@ -4550,7 +4551,7 @@
     </row>
     <row r="342" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C342" s="1" t="s">
-        <v>325</v>
+        <v>273</v>
       </c>
       <c r="D342" s="1">
         <v>0</v>
@@ -4558,7 +4559,7 @@
     </row>
     <row r="343" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C343" s="1" t="s">
-        <v>326</v>
+        <v>274</v>
       </c>
       <c r="D343" s="1">
         <v>0</v>
@@ -4566,7 +4567,7 @@
     </row>
     <row r="344" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C344" s="1" t="s">
-        <v>327</v>
+        <v>275</v>
       </c>
       <c r="D344" s="1">
         <v>0</v>
@@ -4574,7 +4575,7 @@
     </row>
     <row r="345" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C345" s="1" t="s">
-        <v>328</v>
+        <v>276</v>
       </c>
       <c r="D345" s="1">
         <v>0</v>
@@ -4582,7 +4583,7 @@
     </row>
     <row r="346" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C346" s="1" t="s">
-        <v>329</v>
+        <v>279</v>
       </c>
       <c r="D346" s="1">
         <v>0</v>
@@ -4590,7 +4591,7 @@
     </row>
     <row r="347" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C347" s="1" t="s">
-        <v>330</v>
+        <v>280</v>
       </c>
       <c r="D347" s="1">
         <v>0</v>
@@ -4598,7 +4599,7 @@
     </row>
     <row r="348" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C348" s="1" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="D348" s="1">
         <v>0</v>
@@ -4606,7 +4607,7 @@
     </row>
     <row r="349" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C349" s="1" t="s">
-        <v>332</v>
+        <v>282</v>
       </c>
       <c r="D349" s="1">
         <v>0</v>
@@ -4614,7 +4615,7 @@
     </row>
     <row r="350" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C350" s="1" t="s">
-        <v>333</v>
+        <v>285</v>
       </c>
       <c r="D350" s="1">
         <v>0</v>
@@ -4622,7 +4623,7 @@
     </row>
     <row r="351" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C351" s="1" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="D351" s="1">
         <v>0</v>
@@ -4630,7 +4631,7 @@
     </row>
     <row r="352" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C352" s="1" t="s">
-        <v>335</v>
+        <v>287</v>
       </c>
       <c r="D352" s="1">
         <v>0</v>
@@ -4638,7 +4639,7 @@
     </row>
     <row r="353" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C353" s="1" t="s">
-        <v>336</v>
+        <v>288</v>
       </c>
       <c r="D353" s="1">
         <v>0</v>
@@ -4646,7 +4647,7 @@
     </row>
     <row r="354" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C354" s="1" t="s">
-        <v>337</v>
+        <v>289</v>
       </c>
       <c r="D354" s="1">
         <v>0</v>
@@ -4654,7 +4655,7 @@
     </row>
     <row r="355" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C355" s="1" t="s">
-        <v>338</v>
+        <v>290</v>
       </c>
       <c r="D355" s="1">
         <v>0</v>
@@ -4662,7 +4663,7 @@
     </row>
     <row r="356" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C356" s="1" t="s">
-        <v>339</v>
+        <v>293</v>
       </c>
       <c r="D356" s="1">
         <v>0</v>
@@ -4670,7 +4671,7 @@
     </row>
     <row r="357" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C357" s="1" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="D357" s="1">
         <v>0</v>
@@ -4678,7 +4679,7 @@
     </row>
     <row r="358" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C358" s="1" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="D358" s="1">
         <v>0</v>
@@ -4686,7 +4687,7 @@
     </row>
     <row r="359" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C359" s="1" t="s">
-        <v>342</v>
+        <v>304</v>
       </c>
       <c r="D359" s="1">
         <v>0</v>
@@ -4694,7 +4695,7 @@
     </row>
     <row r="360" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C360" s="1" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="D360" s="1">
         <v>0</v>
@@ -4702,7 +4703,7 @@
     </row>
     <row r="361" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C361" s="1" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="D361" s="1">
         <v>0</v>
@@ -4710,7 +4711,7 @@
     </row>
     <row r="362" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C362" s="1" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="D362" s="1">
         <v>0</v>
@@ -4718,7 +4719,7 @@
     </row>
     <row r="363" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C363" s="1" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="D363" s="1">
         <v>0</v>
@@ -4726,7 +4727,7 @@
     </row>
     <row r="364" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C364" s="1" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="D364" s="1">
         <v>0</v>
@@ -4734,7 +4735,7 @@
     </row>
     <row r="365" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C365" s="1" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="D365" s="1">
         <v>0</v>
@@ -4742,7 +4743,7 @@
     </row>
     <row r="366" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C366" s="1" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="D366" s="1">
         <v>0</v>
@@ -4750,7 +4751,7 @@
     </row>
     <row r="367" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C367" s="1" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="D367" s="1">
         <v>0</v>
@@ -4758,7 +4759,7 @@
     </row>
     <row r="368" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C368" s="1" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="D368" s="1">
         <v>0</v>
@@ -4766,7 +4767,7 @@
     </row>
     <row r="369" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C369" s="1" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="D369" s="1">
         <v>0</v>
@@ -4774,7 +4775,7 @@
     </row>
     <row r="370" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C370" s="1" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="D370" s="1">
         <v>0</v>
@@ -4782,7 +4783,7 @@
     </row>
     <row r="371" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C371" s="1" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="D371" s="1">
         <v>0</v>
@@ -4790,7 +4791,7 @@
     </row>
     <row r="372" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C372" s="1" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="D372" s="1">
         <v>0</v>
@@ -4798,7 +4799,7 @@
     </row>
     <row r="373" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C373" s="1" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="D373" s="1">
         <v>0</v>
@@ -4806,7 +4807,7 @@
     </row>
     <row r="374" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C374" s="1" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="D374" s="1">
         <v>0</v>
@@ -4814,7 +4815,7 @@
     </row>
     <row r="375" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C375" s="1" t="s">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="D375" s="1">
         <v>0</v>
@@ -4822,7 +4823,7 @@
     </row>
     <row r="376" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C376" s="1" t="s">
-        <v>361</v>
+        <v>332</v>
       </c>
       <c r="D376" s="1">
         <v>0</v>
@@ -4830,7 +4831,7 @@
     </row>
     <row r="377" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C377" s="1" t="s">
-        <v>365</v>
+        <v>333</v>
       </c>
       <c r="D377" s="1">
         <v>0</v>
@@ -4838,7 +4839,7 @@
     </row>
     <row r="378" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C378" s="1" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="D378" s="1">
         <v>0</v>
@@ -4846,7 +4847,7 @@
     </row>
     <row r="379" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C379" s="1" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="D379" s="1">
         <v>0</v>
@@ -4854,7 +4855,7 @@
     </row>
     <row r="380" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C380" s="1" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="D380" s="1">
         <v>0</v>
@@ -4862,7 +4863,7 @@
     </row>
     <row r="381" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C381" s="1" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
       <c r="D381" s="1">
         <v>0</v>
@@ -4870,7 +4871,7 @@
     </row>
     <row r="382" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C382" s="1" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="D382" s="1">
         <v>0</v>
@@ -4878,7 +4879,7 @@
     </row>
     <row r="383" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C383" s="1" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="D383" s="1">
         <v>0</v>
@@ -4886,7 +4887,7 @@
     </row>
     <row r="384" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C384" s="1" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="D384" s="1">
         <v>0</v>
@@ -4894,7 +4895,7 @@
     </row>
     <row r="385" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C385" s="1" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="D385" s="1">
         <v>0</v>
@@ -4902,7 +4903,7 @@
     </row>
     <row r="386" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C386" s="1" t="s">
-        <v>382</v>
+        <v>346</v>
       </c>
       <c r="D386" s="1">
         <v>0</v>
@@ -4910,7 +4911,7 @@
     </row>
     <row r="387" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C387" s="1" t="s">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="D387" s="1">
         <v>0</v>
@@ -4918,7 +4919,7 @@
     </row>
     <row r="388" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C388" s="1" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
       <c r="D388" s="1">
         <v>0</v>
@@ -4926,7 +4927,7 @@
     </row>
     <row r="389" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C389" s="1" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
       <c r="D389" s="1">
         <v>0</v>
@@ -4934,7 +4935,7 @@
     </row>
     <row r="390" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C390" s="1" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="D390" s="1">
         <v>0</v>
@@ -4942,7 +4943,7 @@
     </row>
     <row r="391" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C391" s="1" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="D391" s="1">
         <v>0</v>
@@ -4950,7 +4951,7 @@
     </row>
     <row r="392" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C392" s="1" t="s">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="D392" s="1">
         <v>0</v>
@@ -4958,7 +4959,7 @@
     </row>
     <row r="393" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C393" s="1" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="D393" s="1">
         <v>0</v>
@@ -4966,7 +4967,7 @@
     </row>
     <row r="394" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C394" s="1" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="D394" s="1">
         <v>0</v>
@@ -4974,7 +4975,7 @@
     </row>
     <row r="395" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C395" s="1" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="D395" s="1">
         <v>0</v>
@@ -4982,7 +4983,7 @@
     </row>
     <row r="396" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C396" s="1" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="D396" s="1">
         <v>0</v>
@@ -4990,7 +4991,7 @@
     </row>
     <row r="397" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C397" s="1" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="D397" s="1">
         <v>0</v>
@@ -4998,7 +4999,7 @@
     </row>
     <row r="398" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C398" s="1" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="D398" s="1">
         <v>0</v>
@@ -5006,7 +5007,7 @@
     </row>
     <row r="399" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C399" s="1" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="D399" s="1">
         <v>0</v>
@@ -5014,7 +5015,7 @@
     </row>
     <row r="400" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C400" s="1" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="D400" s="1">
         <v>0</v>
@@ -5022,7 +5023,7 @@
     </row>
     <row r="401" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C401" s="1" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="D401" s="1">
         <v>0</v>
@@ -5030,7 +5031,7 @@
     </row>
     <row r="402" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C402" s="1" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="D402" s="1">
         <v>0</v>
@@ -5038,7 +5039,7 @@
     </row>
     <row r="403" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C403" s="1" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="D403" s="1">
         <v>0</v>
@@ -5046,7 +5047,7 @@
     </row>
     <row r="404" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C404" s="1" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="D404" s="1">
         <v>0</v>
@@ -5054,7 +5055,7 @@
     </row>
     <row r="405" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C405" s="1" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D405" s="1">
         <v>0</v>
@@ -5062,7 +5063,7 @@
     </row>
     <row r="406" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C406" s="1" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="D406" s="1">
         <v>0</v>
@@ -5070,7 +5071,7 @@
     </row>
     <row r="407" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C407" s="1" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="D407" s="1">
         <v>0</v>
@@ -5078,7 +5079,7 @@
     </row>
     <row r="408" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C408" s="1" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="D408" s="1">
         <v>0</v>
@@ -5086,7 +5087,7 @@
     </row>
     <row r="409" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C409" s="1" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="D409" s="1">
         <v>0</v>
@@ -5094,7 +5095,7 @@
     </row>
     <row r="410" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C410" s="1" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="D410" s="1">
         <v>0</v>
@@ -5102,7 +5103,7 @@
     </row>
     <row r="411" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C411" s="1" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="D411" s="1">
         <v>0</v>
@@ -5110,7 +5111,7 @@
     </row>
     <row r="412" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C412" s="1" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="D412" s="1">
         <v>0</v>
@@ -5118,7 +5119,7 @@
     </row>
     <row r="413" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C413" s="1" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="D413" s="1">
         <v>0</v>
@@ -5126,7 +5127,7 @@
     </row>
     <row r="414" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C414" s="1" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D414" s="1">
         <v>0</v>
@@ -5134,7 +5135,7 @@
     </row>
     <row r="415" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C415" s="1" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="D415" s="1">
         <v>0</v>
@@ -5142,7 +5143,7 @@
     </row>
     <row r="416" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C416" s="1" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D416" s="1">
         <v>0</v>
@@ -5150,7 +5151,7 @@
     </row>
     <row r="417" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C417" s="1" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="D417" s="1">
         <v>0</v>
@@ -5158,7 +5159,7 @@
     </row>
     <row r="418" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C418" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="D418" s="1">
         <v>0</v>
@@ -5166,7 +5167,7 @@
     </row>
     <row r="419" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C419" s="1" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="D419" s="1">
         <v>0</v>
@@ -5174,7 +5175,7 @@
     </row>
     <row r="420" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C420" s="1" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="D420" s="1">
         <v>0</v>
@@ -5182,7 +5183,7 @@
     </row>
     <row r="421" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C421" s="1" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="D421" s="1">
         <v>0</v>
@@ -5190,7 +5191,7 @@
     </row>
     <row r="422" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C422" s="1" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="D422" s="1">
         <v>0</v>
@@ -5198,7 +5199,7 @@
     </row>
     <row r="423" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C423" s="1" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D423" s="1">
         <v>0</v>
@@ -5206,7 +5207,7 @@
     </row>
     <row r="424" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C424" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D424" s="1">
         <v>0</v>
@@ -5214,7 +5215,7 @@
     </row>
     <row r="425" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C425" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D425" s="1">
         <v>0</v>
@@ -5222,7 +5223,7 @@
     </row>
     <row r="426" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C426" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D426" s="1">
         <v>0</v>
@@ -5230,7 +5231,7 @@
     </row>
     <row r="427" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C427" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D427" s="1">
         <v>0</v>
@@ -5238,7 +5239,7 @@
     </row>
     <row r="428" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C428" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D428" s="1">
         <v>0</v>
@@ -5246,7 +5247,7 @@
     </row>
     <row r="429" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C429" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D429" s="1">
         <v>0</v>
@@ -5254,7 +5255,7 @@
     </row>
     <row r="430" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C430" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D430" s="1">
         <v>0</v>
@@ -5262,7 +5263,7 @@
     </row>
     <row r="431" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C431" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D431" s="1">
         <v>0</v>
@@ -5270,7 +5271,7 @@
     </row>
     <row r="432" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C432" s="1" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D432" s="1">
         <v>0</v>
@@ -5278,7 +5279,7 @@
     </row>
     <row r="433" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C433" s="1" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D433" s="1">
         <v>0</v>
@@ -5286,7 +5287,7 @@
     </row>
     <row r="434" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C434" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D434" s="1">
         <v>0</v>
@@ -5294,7 +5295,7 @@
     </row>
     <row r="435" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C435" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D435" s="1">
         <v>0</v>
@@ -5302,7 +5303,7 @@
     </row>
     <row r="436" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C436" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D436" s="1">
         <v>0</v>
@@ -5310,7 +5311,7 @@
     </row>
     <row r="437" spans="3:4" ht="16" x14ac:dyDescent="0.2">
       <c r="C437" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D437" s="1">
         <v>0</v>
